--- a/individual_results/avey/364.xlsx
+++ b/individual_results/avey/364.xlsx
@@ -510,7 +510,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0.4</v>
@@ -519,22 +519,22 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0.5</v>
       </c>
       <c r="K2" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>1</v>
@@ -556,7 +556,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.5</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0.5</v>
@@ -601,31 +601,19 @@
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.5714285714285715</v>
-      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
         <v>0.5714285714285715</v>
       </c>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.4</v>
-      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
         <v>0.5</v>
       </c>
-      <c r="K4" t="n">
-        <v>0.4</v>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>0.6666666666666666</v>
       </c>
@@ -643,31 +631,19 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.7692307692307692</v>
-      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
         <v>0.7692307692307692</v>
       </c>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="n">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.4545454545454545</v>
-      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
         <v>0.5</v>
       </c>
-      <c r="K5" t="n">
-        <v>0.625</v>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>0.5555555555555556</v>
       </c>
@@ -686,7 +662,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6399093280453459</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -695,22 +671,22 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3558398982930783</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.52129602861432</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8262346571285599</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.52129602861432</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.52129602861432</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5196610607458307</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0.8262346571285599</v>
@@ -747,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="b">
         <v>0</v>
@@ -778,7 +754,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -790,19 +766,19 @@
         <v>0</v>
       </c>
       <c r="G8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="b">
         <v>1</v>
       </c>
       <c r="K8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" t="b">
         <v>1</v>
@@ -824,7 +800,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -833,22 +809,22 @@
         <v>0</v>
       </c>
       <c r="F9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="b">
         <v>1</v>
       </c>
       <c r="K9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="b">
         <v>1</v>
@@ -869,31 +845,19 @@
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" t="n">
-        <v>2</v>
-      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
         <v>1</v>
       </c>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="n">
-        <v>4</v>
-      </c>
-      <c r="G10" t="n">
-        <v>2</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2</v>
-      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
         <v>2</v>
       </c>
-      <c r="K10" t="n">
-        <v>3</v>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
